--- a/REPORT/Personal Dev_Team.xlsx
+++ b/REPORT/Personal Dev_Team.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qnguyen95\OneDrive - DXC Production\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aptech\Books-Amazon.com\REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{527C14F0-1CFE-49D9-AB96-9FF0372D42F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A00B85-53B2-42D0-A469-A79C5DBEB24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="171">
   <si>
     <t>HOME</t>
   </si>
@@ -780,10 +780,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -807,180 +807,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="6" tint="-0.499984740745262"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="6" tint="-0.499984740745262"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="6" tint="-0.499984740745262"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="6" tint="-0.499984740745262"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="6" tint="-0.499984740745262"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="6" tint="-0.499984740745262"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="6" tint="-0.499984740745262"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="6" tint="-0.499984740745262"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="6" tint="-0.499984740745262"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="6"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="6" tint="-0.499984740745262"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="6" tint="-0.499984740745262"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
         <color theme="6" tint="-0.499984740745262"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -1135,6 +961,180 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="6"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color theme="6"/>
@@ -1249,15 +1249,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Addresses" displayName="Addresses" ref="B2:G7" totalsRowShown="0" dataDxfId="17" headerRowCellStyle="Heading 1" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Addresses" displayName="Addresses" ref="B2:G7" totalsRowShown="0" dataDxfId="22" headerRowCellStyle="Heading 1" dataCellStyle="Normal">
   <autoFilter ref="B2:G7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="27" xr3:uid="{EB477A5D-BB0A-423C-B5AF-6B2EA5C28267}" name="Project" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Assigned" dataDxfId="22" dataCellStyle="Normal"/>
-    <tableColumn id="26" xr3:uid="{5A12DAD0-5D4E-4CEB-939E-F4EAE9293F68}" name="EMAIL" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="PHONE" dataDxfId="20" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="CLASS" dataDxfId="19" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="TASK" dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="27" xr3:uid="{EB477A5D-BB0A-423C-B5AF-6B2EA5C28267}" name="Project" dataDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Assigned" dataDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="26" xr3:uid="{5A12DAD0-5D4E-4CEB-939E-F4EAE9293F68}" name="EMAIL" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="PHONE" dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="CLASS" dataDxfId="17" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="TASK" dataDxfId="16" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="Personal Address Book" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1269,16 +1269,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A05E71B1-25DD-46DD-9485-4D0CE5AE58DA}" name="Addresses3" displayName="Addresses3" ref="B10:I22" totalsRowShown="0" headerRowDxfId="9" dataDxfId="16" headerRowCellStyle="Heading 1" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A05E71B1-25DD-46DD-9485-4D0CE5AE58DA}" name="Addresses3" displayName="Addresses3" ref="B10:I22" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowCellStyle="Heading 1" dataCellStyle="Normal">
   <autoFilter ref="B10:I22" xr:uid="{A05E71B1-25DD-46DD-9485-4D0CE5AE58DA}"/>
   <tableColumns count="8">
-    <tableColumn id="32" xr3:uid="{B704F5D1-5B77-472B-9F52-CC115434DFC0}" name="HOME" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="32" xr3:uid="{B704F5D1-5B77-472B-9F52-CC115434DFC0}" name="HOME" dataDxfId="13" dataCellStyle="Normal"/>
     <tableColumn id="1" xr3:uid="{93A2634E-7862-4FF5-BC5A-DCBE769101A6}" name="User Management" dataDxfId="12" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{138E167E-6CE3-450F-9C3D-A1B2A1C81B12}" name="Category Management" dataDxfId="13" dataCellStyle="Normal"/>
-    <tableColumn id="28" xr3:uid="{78474FD6-2CC5-4F91-A764-188C2A3E6BC9}" name="Author Management" dataDxfId="15" dataCellStyle="Normal"/>
-    <tableColumn id="29" xr3:uid="{37DB1B29-9AED-40E8-963C-D7597D42C500}" name="Book Management" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="30" xr3:uid="{9516CDE5-7B0C-40A5-A534-86A8E83156E9}" name="Settings Module" dataDxfId="14" dataCellStyle="Normal"/>
-    <tableColumn id="31" xr3:uid="{A4EDC29A-0D0A-4B0A-AB6F-7E9F1707C4FE}" name="Order Management" dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{138E167E-6CE3-450F-9C3D-A1B2A1C81B12}" name="Category Management" dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="28" xr3:uid="{78474FD6-2CC5-4F91-A764-188C2A3E6BC9}" name="Author Management" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="29" xr3:uid="{37DB1B29-9AED-40E8-963C-D7597D42C500}" name="Book Management" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="30" xr3:uid="{9516CDE5-7B0C-40A5-A534-86A8E83156E9}" name="Settings Module" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="31" xr3:uid="{A4EDC29A-0D0A-4B0A-AB6F-7E9F1707C4FE}" name="Order Management" dataDxfId="7" dataCellStyle="Normal"/>
     <tableColumn id="33" xr3:uid="{A3CE0620-0E19-4CE1-8592-F1B8C2D09DF4}" name="Sales Report Module" dataDxfId="6" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="Personal Address Book" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1578,8 +1578,8 @@
   </sheetPr>
   <dimension ref="B1:I59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1711,13 +1711,13 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
@@ -1996,14 +1996,14 @@
       <c r="I22" s="4"/>
     </row>
     <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B25" s="1" t="s">
@@ -2438,7 +2438,9 @@
       <c r="E57" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F57" s="4"/>
+      <c r="F57" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="58" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
